--- a/analysis/metadata/P08_3/P08_3_minimal_metadata.xlsx
+++ b/analysis/metadata/P08_3/P08_3_minimal_metadata.xlsx
@@ -468,7 +468,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-03-11</t>
+          <t>11/03/2020 00:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2020-03-11</t>
+          <t>11/03/2020 00:00</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -536,7 +536,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-03-11</t>
+          <t>11/03/2020 00:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2020-03-11</t>
+          <t>11/03/2020 00:00</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -604,7 +604,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2020-03-11</t>
+          <t>11/03/2020 00:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2020-03-11</t>
+          <t>11/03/2020 00:00</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-03-11</t>
+          <t>11/03/2020 00:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2020-03-11</t>
+          <t>11/03/2020 00:00</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-03-11</t>
+          <t>11/03/2020 00:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2020-03-11</t>
+          <t>11/03/2020 00:00</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-03-11</t>
+          <t>11/03/2020 00:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2020-03-11</t>
+          <t>11/03/2020 00:00</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -876,7 +876,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2020-03-11</t>
+          <t>11/03/2020 00:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2020-03-11</t>
+          <t>11/03/2020 00:00</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -944,7 +944,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-03-11</t>
+          <t>11/03/2020 00:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2020-03-11</t>
+          <t>11/03/2020 00:00</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1012,7 +1012,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-03-11</t>
+          <t>11/03/2020 00:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2020-03-11</t>
+          <t>11/03/2020 00:00</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1080,7 +1080,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-03-11</t>
+          <t>11/03/2020 00:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2020-03-11</t>
+          <t>11/03/2020 00:00</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-10-21</t>
+          <t>21/10/2020 06:17</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2020-10-21</t>
+          <t>21/10/2020 06:17</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-10-20</t>
+          <t>20/10/2020 08:27</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2020-10-20</t>
+          <t>20/10/2020 08:27</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2021-07-27</t>
+          <t>27/07/2021 08:43</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2021-07-27</t>
+          <t>27/07/2021 08:43</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1347,7 +1347,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-10-21</t>
+          <t>21/10/2020 04:03</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1367,7 +1367,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2020-10-21</t>
+          <t>21/10/2020 04:03</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1415,7 +1415,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-10-21</t>
+          <t>21/10/2020 07:03</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1440,7 +1440,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2020-10-21</t>
+          <t>21/10/2020 07:03</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1483,7 +1483,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>22/10/2020 07:49</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>22/10/2020 07:49</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-10-21</t>
+          <t>21/10/2020 06:54</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2020-10-21</t>
+          <t>21/10/2020 06:54</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>22/10/2020 07:09</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>22/10/2020 07:09</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1682,7 +1682,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>22/10/2020 07:17</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1702,7 +1702,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>22/10/2020 07:17</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1750,7 +1750,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-10-21</t>
+          <t>21/10/2020 06:08</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1770,7 +1770,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2020-10-21</t>
+          <t>21/10/2020 06:08</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1818,7 +1818,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2020-10-21</t>
+          <t>21/10/2020 04:58</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1838,7 +1838,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2020-10-21</t>
+          <t>21/10/2020 04:58</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-07-10</t>
+          <t>10/07/2020 08:07</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1916,7 +1916,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2020-07-10</t>
+          <t>10/07/2020 08:07</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -1969,7 +1969,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-06-29</t>
+          <t>29/06/2020 11:08</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1989,7 +1989,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2020-06-29</t>
+          <t>29/06/2020 11:08</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2042,7 +2042,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2020-07-10</t>
+          <t>10/07/2020 07:56</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2020-07-10</t>
+          <t>10/07/2020 07:56</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2120,7 +2120,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2020-07-08</t>
+          <t>08/07/2020 09:25</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2145,7 +2145,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>2020-07-08</t>
+          <t>08/07/2020 09:25</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2193,7 +2193,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2020-07-08</t>
+          <t>08/07/2020 09:08</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2218,7 +2218,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2020-07-08</t>
+          <t>08/07/2020 09:08</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2266,7 +2266,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2020-10-21</t>
+          <t>21/10/2020 04:31</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2286,7 +2286,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2020-10-21</t>
+          <t>21/10/2020 04:31</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2339,7 +2339,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2020-07-18</t>
+          <t>18/07/2020 08:32</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2364,7 +2364,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2020-07-18</t>
+          <t>18/07/2020 08:32</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2407,7 +2407,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2020-07-19</t>
+          <t>19/07/2020 00:00</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2432,7 +2432,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2020-07-19</t>
+          <t>19/07/2020 00:00</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -2480,7 +2480,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2020-07-19</t>
+          <t>19/07/2020 00:00</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2505,7 +2505,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>2020-07-19</t>
+          <t>19/07/2020 00:00</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -2548,7 +2548,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2020-10-20</t>
+          <t>20/10/2020 08:12</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2568,7 +2568,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2020-10-20</t>
+          <t>20/10/2020 08:12</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -2616,7 +2616,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2020-07-28</t>
+          <t>28/07/2020 09:45</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2636,7 +2636,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>2020-07-28</t>
+          <t>28/07/2020 09:45</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2684,7 +2684,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2020-07-30</t>
+          <t>30/07/2020 09:01</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2704,7 +2704,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>2020-07-30</t>
+          <t>30/07/2020 09:01</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -2752,7 +2752,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2020-08-03</t>
+          <t>03/08/2020 07:30</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2772,7 +2772,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>2020-08-03</t>
+          <t>03/08/2020 07:30</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -2820,7 +2820,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2020-07-22</t>
+          <t>22/07/2020 03:42</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2840,7 +2840,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>2020-07-22</t>
+          <t>22/07/2020 03:42</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -2888,7 +2888,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2020-08-11</t>
+          <t>11/08/2020 10:10</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2908,7 +2908,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2020-08-11</t>
+          <t>11/08/2020 10:10</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -2956,7 +2956,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2020-08-24</t>
+          <t>24/08/2020 08:53</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2976,7 +2976,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>2020-08-24</t>
+          <t>24/08/2020 08:53</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -3024,7 +3024,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2020-08-28</t>
+          <t>28/08/2020 07:23</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -3044,7 +3044,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>2020-08-28</t>
+          <t>28/08/2020 07:23</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -3092,7 +3092,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2020-08-17</t>
+          <t>17/08/2020 09:50</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>2020-08-17</t>
+          <t>17/08/2020 09:50</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>27/09/2020 00:00</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3185,7 +3185,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>27/09/2020 00:00</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -3223,7 +3223,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>27/09/2020 00:00</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3248,7 +3248,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>27/09/2020 00:00</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -3291,7 +3291,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>27/09/2020 00:00</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3316,7 +3316,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>27/09/2020 00:00</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -3354,7 +3354,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>27/09/2020 00:00</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3379,7 +3379,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>27/09/2020 00:00</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -3417,7 +3417,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>27/09/2020 00:00</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3442,7 +3442,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>27/09/2020 00:00</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -3490,7 +3490,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>27/09/2020 00:00</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3515,7 +3515,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>27/09/2020 00:00</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -3553,7 +3553,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>27/09/2020 00:00</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3578,7 +3578,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>27/09/2020 00:00</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -3614,14 +3614,9 @@
           <t>natural_soil</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>6000</t>
-        </is>
-      </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>27/09/2020 00:00</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3646,17 +3641,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>Grassland formations</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>Grasslands (non-habitat type)</t>
+          <t>27/09/2020 00:00</t>
         </is>
       </c>
     </row>
@@ -3689,7 +3674,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>27/09/2020 00:00</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3714,7 +3699,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>27/09/2020 00:00</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -3752,7 +3737,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>27/09/2020 00:00</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3777,7 +3762,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>27/09/2020 00:00</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -3815,7 +3800,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>27/09/2020 00:00</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3840,7 +3825,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>27/09/2020 00:00</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -3883,7 +3868,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>27/09/2020 00:00</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3908,7 +3893,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>27/09/2020 00:00</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -3944,14 +3929,9 @@
           <t>natural_soil</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>6000</t>
-        </is>
-      </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>27/09/2020 00:00</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3976,17 +3956,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>Grassland formations</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>Grasslands (non-habitat type)</t>
+          <t>27/09/2020 00:00</t>
         </is>
       </c>
     </row>
@@ -4019,7 +3989,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2020-09-05</t>
+          <t>05/09/2020 00:00</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4044,7 +4014,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>2020-09-05</t>
+          <t>05/09/2020 00:00</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -4082,7 +4052,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2020-09-05</t>
+          <t>05/09/2020 00:00</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4107,7 +4077,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>2020-09-05</t>
+          <t>05/09/2020 00:00</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -4160,7 +4130,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2020-08-15</t>
+          <t>15/08/2020 12:56</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4185,7 +4155,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>2020-08-15</t>
+          <t>15/08/2020 12:56</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -4228,7 +4198,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2020-09-05</t>
+          <t>05/09/2020 00:00</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4253,7 +4223,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>2020-09-05</t>
+          <t>05/09/2020 00:00</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -4296,7 +4266,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2020-08-21</t>
+          <t>21/08/2020 10:26</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4321,7 +4291,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>2020-08-21</t>
+          <t>21/08/2020 10:26</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -4374,7 +4344,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2020-08-21</t>
+          <t>21/08/2020 03:05</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4399,7 +4369,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>2020-08-21</t>
+          <t>21/08/2020 03:05</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -4447,7 +4417,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2020-09-05</t>
+          <t>05/09/2020 10:57</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4472,7 +4442,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>2020-09-05</t>
+          <t>05/09/2020 10:57</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -4520,7 +4490,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2020-09-06</t>
+          <t>06/09/2020 06:53</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4545,7 +4515,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>2020-09-06</t>
+          <t>06/09/2020 06:53</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -4593,7 +4563,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2020-09-06</t>
+          <t>06/09/2020 11:28</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4618,7 +4588,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>2020-09-06</t>
+          <t>06/09/2020 11:28</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -4666,7 +4636,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2021-03-12</t>
+          <t>12/03/2021 09:20</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4691,7 +4661,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>2021-03-12</t>
+          <t>12/03/2021 09:20</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -4739,7 +4709,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2020-10-05</t>
+          <t>05/10/2020 15:20</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4764,7 +4734,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>2020-10-05</t>
+          <t>05/10/2020 15:20</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -4812,7 +4782,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2020-09-17</t>
+          <t>17/09/2020 00:00</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -4837,7 +4807,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>2020-09-17</t>
+          <t>17/09/2020 00:00</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -4875,7 +4845,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2020-09-05</t>
+          <t>05/09/2020 00:00</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -4900,7 +4870,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>2020-09-05</t>
+          <t>05/09/2020 00:00</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -4915,6 +4885,11 @@
           <t>MFD10692</t>
         </is>
       </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
+        </is>
+      </c>
       <c r="J67" t="inlineStr">
         <is>
           <t>P08_3</t>
@@ -4928,6 +4903,11 @@
       <c r="L67" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>30/06/2022 09:36</t>
         </is>
       </c>
     </row>

--- a/analysis/metadata/P08_3/P08_3_minimal_metadata.xlsx
+++ b/analysis/metadata/P08_3/P08_3_minimal_metadata.xlsx
@@ -468,7 +468,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>11/03/2020 00:00</t>
+          <t>2020-03-11</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>11/03/2020 00:00</t>
+          <t>2020-03-11</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -536,7 +536,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>11/03/2020 00:00</t>
+          <t>2020-03-11</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>11/03/2020 00:00</t>
+          <t>2020-03-11</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -604,7 +604,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>11/03/2020 00:00</t>
+          <t>2020-03-11</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>11/03/2020 00:00</t>
+          <t>2020-03-11</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>11/03/2020 00:00</t>
+          <t>2020-03-11</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>11/03/2020 00:00</t>
+          <t>2020-03-11</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>11/03/2020 00:00</t>
+          <t>2020-03-11</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>11/03/2020 00:00</t>
+          <t>2020-03-11</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>11/03/2020 00:00</t>
+          <t>2020-03-11</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>11/03/2020 00:00</t>
+          <t>2020-03-11</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -876,7 +876,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>11/03/2020 00:00</t>
+          <t>2020-03-11</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>11/03/2020 00:00</t>
+          <t>2020-03-11</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -944,7 +944,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>11/03/2020 00:00</t>
+          <t>2020-03-11</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>11/03/2020 00:00</t>
+          <t>2020-03-11</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1012,7 +1012,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>11/03/2020 00:00</t>
+          <t>2020-03-11</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>11/03/2020 00:00</t>
+          <t>2020-03-11</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1080,7 +1080,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>11/03/2020 00:00</t>
+          <t>2020-03-11</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>11/03/2020 00:00</t>
+          <t>2020-03-11</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>21/10/2020 06:17</t>
+          <t>2020-10-21</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>21/10/2020 06:17</t>
+          <t>2020-10-21</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>20/10/2020 08:27</t>
+          <t>2020-10-20</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>20/10/2020 08:27</t>
+          <t>2020-10-20</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>27/07/2021 08:43</t>
+          <t>2021-07-27</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>27/07/2021 08:43</t>
+          <t>2021-07-27</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1347,7 +1347,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>21/10/2020 04:03</t>
+          <t>2020-10-21</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1367,7 +1367,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>21/10/2020 04:03</t>
+          <t>2020-10-21</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1415,7 +1415,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>21/10/2020 07:03</t>
+          <t>2020-10-21</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1440,7 +1440,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>21/10/2020 07:03</t>
+          <t>2020-10-21</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1483,7 +1483,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>22/10/2020 07:49</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>22/10/2020 07:49</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>21/10/2020 06:54</t>
+          <t>2020-10-21</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>21/10/2020 06:54</t>
+          <t>2020-10-21</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>22/10/2020 07:09</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>22/10/2020 07:09</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1682,7 +1682,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>22/10/2020 07:17</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1702,7 +1702,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>22/10/2020 07:17</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1750,7 +1750,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>21/10/2020 06:08</t>
+          <t>2020-10-21</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1770,7 +1770,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>21/10/2020 06:08</t>
+          <t>2020-10-21</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1818,7 +1818,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>21/10/2020 04:58</t>
+          <t>2020-10-21</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1838,7 +1838,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>21/10/2020 04:58</t>
+          <t>2020-10-21</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>10/07/2020 08:07</t>
+          <t>2020-07-10</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1916,7 +1916,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>10/07/2020 08:07</t>
+          <t>2020-07-10</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -1969,7 +1969,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>29/06/2020 11:08</t>
+          <t>2020-06-29</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1989,7 +1989,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>29/06/2020 11:08</t>
+          <t>2020-06-29</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2042,7 +2042,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>10/07/2020 07:56</t>
+          <t>2020-07-10</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>10/07/2020 07:56</t>
+          <t>2020-07-10</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2120,7 +2120,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>08/07/2020 09:25</t>
+          <t>2020-07-08</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2145,7 +2145,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>08/07/2020 09:25</t>
+          <t>2020-07-08</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2193,7 +2193,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>08/07/2020 09:08</t>
+          <t>2020-07-08</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2218,7 +2218,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>08/07/2020 09:08</t>
+          <t>2020-07-08</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2266,7 +2266,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>21/10/2020 04:31</t>
+          <t>2020-10-21</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2286,7 +2286,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>21/10/2020 04:31</t>
+          <t>2020-10-21</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2339,7 +2339,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>18/07/2020 08:32</t>
+          <t>2020-07-18</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2364,7 +2364,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>18/07/2020 08:32</t>
+          <t>2020-07-18</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2407,7 +2407,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>19/07/2020 00:00</t>
+          <t>2020-07-19</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2432,7 +2432,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>19/07/2020 00:00</t>
+          <t>2020-07-19</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -2480,7 +2480,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>19/07/2020 00:00</t>
+          <t>2020-07-19</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2505,7 +2505,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>19/07/2020 00:00</t>
+          <t>2020-07-19</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -2548,7 +2548,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>20/10/2020 08:12</t>
+          <t>2020-10-20</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2568,7 +2568,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>20/10/2020 08:12</t>
+          <t>2020-10-20</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -2616,7 +2616,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>28/07/2020 09:45</t>
+          <t>2020-07-28</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2636,7 +2636,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>28/07/2020 09:45</t>
+          <t>2020-07-28</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2684,7 +2684,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>30/07/2020 09:01</t>
+          <t>2020-07-30</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2704,7 +2704,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>30/07/2020 09:01</t>
+          <t>2020-07-30</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -2752,7 +2752,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>03/08/2020 07:30</t>
+          <t>2020-08-03</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2772,7 +2772,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>03/08/2020 07:30</t>
+          <t>2020-08-03</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -2820,7 +2820,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>22/07/2020 03:42</t>
+          <t>2020-07-22</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2840,7 +2840,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>22/07/2020 03:42</t>
+          <t>2020-07-22</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -2888,7 +2888,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>11/08/2020 10:10</t>
+          <t>2020-08-11</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2908,7 +2908,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>11/08/2020 10:10</t>
+          <t>2020-08-11</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -2956,7 +2956,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>24/08/2020 08:53</t>
+          <t>2020-08-24</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2976,7 +2976,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>24/08/2020 08:53</t>
+          <t>2020-08-24</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -3024,7 +3024,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>28/08/2020 07:23</t>
+          <t>2020-08-28</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -3044,7 +3044,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>28/08/2020 07:23</t>
+          <t>2020-08-28</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -3092,7 +3092,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>17/08/2020 09:50</t>
+          <t>2020-08-17</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>17/08/2020 09:50</t>
+          <t>2020-08-17</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>27/09/2020 00:00</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3185,7 +3185,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>27/09/2020 00:00</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -3223,7 +3223,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>27/09/2020 00:00</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3248,7 +3248,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>27/09/2020 00:00</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -3291,7 +3291,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>27/09/2020 00:00</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3316,7 +3316,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>27/09/2020 00:00</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -3354,7 +3354,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>27/09/2020 00:00</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3379,7 +3379,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>27/09/2020 00:00</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -3417,7 +3417,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>27/09/2020 00:00</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3442,7 +3442,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>27/09/2020 00:00</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -3490,7 +3490,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>27/09/2020 00:00</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3515,7 +3515,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>27/09/2020 00:00</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -3553,7 +3553,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>27/09/2020 00:00</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3578,7 +3578,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>27/09/2020 00:00</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -3616,7 +3616,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>27/09/2020 00:00</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3641,7 +3641,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>27/09/2020 00:00</t>
+          <t>2020-09-27</t>
         </is>
       </c>
     </row>
@@ -3674,7 +3674,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>27/09/2020 00:00</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3699,7 +3699,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>27/09/2020 00:00</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -3737,7 +3737,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>27/09/2020 00:00</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3762,7 +3762,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>27/09/2020 00:00</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -3800,7 +3800,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>27/09/2020 00:00</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3825,7 +3825,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>27/09/2020 00:00</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -3868,7 +3868,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>27/09/2020 00:00</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3893,7 +3893,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>27/09/2020 00:00</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -3931,7 +3931,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>27/09/2020 00:00</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3956,7 +3956,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>27/09/2020 00:00</t>
+          <t>2020-09-27</t>
         </is>
       </c>
     </row>
@@ -3989,7 +3989,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>05/09/2020 00:00</t>
+          <t>2020-09-05</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4014,7 +4014,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>05/09/2020 00:00</t>
+          <t>2020-09-05</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -4052,7 +4052,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>05/09/2020 00:00</t>
+          <t>2020-09-05</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4077,7 +4077,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>05/09/2020 00:00</t>
+          <t>2020-09-05</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -4130,7 +4130,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>15/08/2020 12:56</t>
+          <t>2020-08-15</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4155,7 +4155,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>15/08/2020 12:56</t>
+          <t>2020-08-15</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -4198,7 +4198,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>05/09/2020 00:00</t>
+          <t>2020-09-05</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4223,7 +4223,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>05/09/2020 00:00</t>
+          <t>2020-09-05</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -4266,7 +4266,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>21/08/2020 10:26</t>
+          <t>2020-08-21</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4291,7 +4291,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>21/08/2020 10:26</t>
+          <t>2020-08-21</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -4344,7 +4344,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>21/08/2020 03:05</t>
+          <t>2020-08-21</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4369,7 +4369,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>21/08/2020 03:05</t>
+          <t>2020-08-21</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -4417,7 +4417,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>05/09/2020 10:57</t>
+          <t>2020-09-05</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4442,7 +4442,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>05/09/2020 10:57</t>
+          <t>2020-09-05</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -4490,7 +4490,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>06/09/2020 06:53</t>
+          <t>2020-09-06</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4515,7 +4515,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>06/09/2020 06:53</t>
+          <t>2020-09-06</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -4563,7 +4563,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>06/09/2020 11:28</t>
+          <t>2020-09-06</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4588,7 +4588,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>06/09/2020 11:28</t>
+          <t>2020-09-06</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -4636,7 +4636,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>12/03/2021 09:20</t>
+          <t>2021-03-12</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4661,7 +4661,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>12/03/2021 09:20</t>
+          <t>2021-03-12</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -4709,7 +4709,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>05/10/2020 15:20</t>
+          <t>2020-10-05</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4734,7 +4734,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>05/10/2020 15:20</t>
+          <t>2020-10-05</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -4782,7 +4782,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>17/09/2020 00:00</t>
+          <t>2020-09-17</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -4807,7 +4807,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>17/09/2020 00:00</t>
+          <t>2020-09-17</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -4845,7 +4845,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>05/09/2020 00:00</t>
+          <t>2020-09-05</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -4870,7 +4870,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>05/09/2020 00:00</t>
+          <t>2020-09-05</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -4887,7 +4887,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -4907,7 +4907,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>30/06/2022 09:36</t>
+          <t>2022-06-30</t>
         </is>
       </c>
     </row>

--- a/analysis/metadata/P08_3/P08_3_minimal_metadata.xlsx
+++ b/analysis/metadata/P08_3/P08_3_minimal_metadata.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P67"/>
+  <dimension ref="A1:P54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1122,7 +1122,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MFD00852</t>
+          <t>MFD02324</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1131,10 +1131,10 @@
         </is>
       </c>
       <c r="C12">
-        <v>57.2754</v>
+        <v>55.5075</v>
       </c>
       <c r="D12">
-        <v>10.9489</v>
+        <v>8.2478</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1143,12 +1143,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4010</t>
+          <t>1330</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>skallingen</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-10-21</t>
+          <t>2020-07-10</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>fugtigt marskland på prøvetagningstidspunkt</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1168,29 +1178,29 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2020-10-21</t>
+          <t>2020-07-10</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
+          <t>Coastal</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Temperate heath</t>
+          <t>Salt marshes and salt meadows</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Wet heath</t>
+          <t>Atlantic salt meadows</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MFD00916</t>
+          <t>MFD02331</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1199,10 +1209,10 @@
         </is>
       </c>
       <c r="C13">
-        <v>57.2868</v>
+        <v>55.5567</v>
       </c>
       <c r="D13">
-        <v>10.9764</v>
+        <v>8.0847</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1211,12 +1221,17 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4030</t>
+          <t>2330</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>blåvand hug fyrtårn</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-10-20</t>
+          <t>2020-06-29</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1236,29 +1251,29 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2020-10-20</t>
+          <t>2020-06-29</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
+          <t>Dunes</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Temperate heath</t>
+          <t>Inland dunes</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Dry heath</t>
+          <t>Inland dunes grass</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MFD01367</t>
+          <t>MFD02343</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1267,10 +1282,10 @@
         </is>
       </c>
       <c r="C14">
-        <v>56.2006</v>
+        <v>55.5049</v>
       </c>
       <c r="D14">
-        <v>8.1548</v>
+        <v>8.253299999999999</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1279,12 +1294,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>7200</t>
+          <t>1330</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>skallingen</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2021-07-27</t>
+          <t>2020-07-10</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>marsk, rimelig tør på prøvetgagningstidspunkt</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1304,24 +1329,29 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2021-07-27</t>
+          <t>2020-07-10</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Bogs, mires and fens</t>
+          <t>Coastal</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Calcareous fens</t>
+          <t>Salt marshes and salt meadows</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Atlantic salt meadows</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MFD01947</t>
+          <t>MFD02344</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1330,10 +1360,10 @@
         </is>
       </c>
       <c r="C15">
-        <v>57.2807</v>
+        <v>55.655</v>
       </c>
       <c r="D15">
-        <v>10.9658</v>
+        <v>8.2837</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1342,12 +1372,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4010</t>
+          <t>9100</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>ballonparken</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-10-21</t>
+          <t>2020-07-08</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>fyrretræs plantage</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1367,29 +1407,24 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2020-10-21</t>
+          <t>2020-07-08</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
+          <t>Forrests</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>Wet heath</t>
+          <t>Temperate forests</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MFD02170</t>
+          <t>MFD02346</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1398,10 +1433,10 @@
         </is>
       </c>
       <c r="C16">
-        <v>57.3012</v>
+        <v>55.665</v>
       </c>
       <c r="D16">
-        <v>10.9498</v>
+        <v>8.2944</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1410,17 +1445,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>9100</t>
+          <t>9160</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>vrøgum, ballonparken</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-10-21</t>
+          <t>2020-07-08</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>bjergfyr bevoksning</t>
+          <t>egetræer med enkelte birk</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1440,7 +1480,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2020-10-21</t>
+          <t>2020-07-08</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1451,13 +1491,18 @@
       <c r="O16" t="inlineStr">
         <is>
           <t>Temperate forests</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Oak-hornbeam mixed forrest</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MFD02208</t>
+          <t>MFD02835</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1466,10 +1511,10 @@
         </is>
       </c>
       <c r="C17">
-        <v>57.2346</v>
+        <v>55.2906</v>
       </c>
       <c r="D17">
-        <v>10.9891</v>
+        <v>14.7601</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1478,12 +1523,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1330</t>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>hammer knude ruten nær sandvig</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2020-07-18</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1503,29 +1558,19 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2020-07-18</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
           <t>Coastal</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>Salt marshes and salt meadows</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>Atlantic salt meadows</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MFD02239</t>
+          <t>MFD02840</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1534,10 +1579,10 @@
         </is>
       </c>
       <c r="C18">
-        <v>57.301</v>
+        <v>55.0595</v>
       </c>
       <c r="D18">
-        <v>10.9498</v>
+        <v>14.7807</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1546,17 +1591,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>9100</t>
+          <t>1200</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-10-21</t>
+          <t>2020-07-19</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>skovfyr bevoksning</t>
+          <t xml:space="preserve"> soil near beach</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1576,24 +1626,24 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2020-10-21</t>
+          <t>2020-07-19</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Coastal</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Temperate forests</t>
+          <t>Sea cliffs and shingle or stony beaches</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>MFD02244</t>
+          <t>MFD02841</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1602,10 +1652,10 @@
         </is>
       </c>
       <c r="C19">
-        <v>57.2897</v>
+        <v>55.0519</v>
       </c>
       <c r="D19">
-        <v>10.9798</v>
+        <v>14.8132</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1614,12 +1664,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>9100</t>
+          <t>1200</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2020-07-19</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> soil from a hill near beach</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1639,24 +1699,24 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2020-07-19</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Coastal</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Temperate forests</t>
+          <t>Sea cliffs and shingle or stony beaches</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MFD02246</t>
+          <t>MFD03101</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1665,10 +1725,10 @@
         </is>
       </c>
       <c r="C20">
-        <v>57.3</v>
+        <v>56.988</v>
       </c>
       <c r="D20">
-        <v>10.9686</v>
+        <v>9.9704</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1677,12 +1737,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2140</t>
+          <t>6230</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2020-07-28</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1702,29 +1762,29 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2020-07-28</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Dunes</t>
+          <t>Grassland formations</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Sea dunes</t>
+          <t>Semi-natural dry grasslands</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Decalcified Empetrum dunes</t>
+          <t>Species-rich Nardus upland grassland</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>MFD02248</t>
+          <t>MFD03102</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1733,10 +1793,10 @@
         </is>
       </c>
       <c r="C21">
-        <v>57.2786</v>
+        <v>56.9884</v>
       </c>
       <c r="D21">
-        <v>10.9751</v>
+        <v>10.0051</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1745,12 +1805,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4010</t>
+          <t>6230</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-10-21</t>
+          <t>2020-07-30</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1770,29 +1830,29 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2020-10-21</t>
+          <t>2020-07-30</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
+          <t>Grassland formations</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Temperate heath</t>
+          <t>Semi-natural dry grasslands</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Wet heath</t>
+          <t>Species-rich Nardus upland grassland</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>MFD02253</t>
+          <t>MFD03107</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1801,10 +1861,10 @@
         </is>
       </c>
       <c r="C22">
-        <v>57.2771</v>
+        <v>56.9545</v>
       </c>
       <c r="D22">
-        <v>10.9458</v>
+        <v>10.0158</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1813,12 +1873,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>4030</t>
+          <t>6230</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2020-10-21</t>
+          <t>2020-08-03</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1838,29 +1898,29 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2020-10-21</t>
+          <t>2020-08-03</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
+          <t>Grassland formations</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Temperate heath</t>
+          <t>Semi-natural dry grasslands</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Dry heath</t>
+          <t>Species-rich Nardus upland grassland</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>MFD02324</t>
+          <t>MFD03114</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1869,10 +1929,10 @@
         </is>
       </c>
       <c r="C23">
-        <v>55.5075</v>
+        <v>56.9954</v>
       </c>
       <c r="D23">
-        <v>8.2478</v>
+        <v>9.8789</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1881,22 +1941,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1330</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>skallingen</t>
+          <t>6230</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-07-10</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>fugtigt marskland på prøvetagningstidspunkt</t>
+          <t>2020-07-22</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1916,29 +1966,29 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2020-07-10</t>
+          <t>2020-07-22</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Coastal</t>
+          <t>Grassland formations</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Salt marshes and salt meadows</t>
+          <t>Semi-natural dry grasslands</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Atlantic salt meadows</t>
+          <t>Species-rich Nardus upland grassland</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>MFD02331</t>
+          <t>MFD03466</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1947,10 +1997,10 @@
         </is>
       </c>
       <c r="C24">
-        <v>55.5567</v>
+        <v>56.9769</v>
       </c>
       <c r="D24">
-        <v>8.0847</v>
+        <v>9.920199999999999</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1959,17 +2009,12 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2330</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>blåvand hug fyrtårn</t>
+          <t>6230</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-06-29</t>
+          <t>2020-08-11</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1989,29 +2034,29 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2020-06-29</t>
+          <t>2020-08-11</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Dunes</t>
+          <t>Grassland formations</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Inland dunes</t>
+          <t>Semi-natural dry grasslands</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Inland dunes grass</t>
+          <t>Species-rich Nardus upland grassland</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MFD02343</t>
+          <t>MFD03474</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2020,10 +2065,10 @@
         </is>
       </c>
       <c r="C25">
-        <v>55.5049</v>
+        <v>56.9877</v>
       </c>
       <c r="D25">
-        <v>8.253299999999999</v>
+        <v>9.8202</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2032,22 +2077,12 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1330</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>skallingen</t>
+          <t>6230</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2020-07-10</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>marsk, rimelig tør på prøvetgagningstidspunkt</t>
+          <t>2020-08-24</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2067,29 +2102,29 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2020-07-10</t>
+          <t>2020-08-24</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Coastal</t>
+          <t>Grassland formations</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Salt marshes and salt meadows</t>
+          <t>Semi-natural dry grasslands</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Atlantic salt meadows</t>
+          <t>Species-rich Nardus upland grassland</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>MFD02344</t>
+          <t>MFD03495</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2098,10 +2133,10 @@
         </is>
       </c>
       <c r="C26">
-        <v>55.655</v>
+        <v>57.0784</v>
       </c>
       <c r="D26">
-        <v>8.2837</v>
+        <v>9.915100000000001</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2110,22 +2145,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>9100</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>ballonparken</t>
+          <t>6230</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2020-07-08</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>fyrretræs plantage</t>
+          <t>2020-08-28</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2145,24 +2170,29 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>2020-07-08</t>
+          <t>2020-08-28</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Grassland formations</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Temperate forests</t>
+          <t>Semi-natural dry grasslands</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Species-rich Nardus upland grassland</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>MFD02346</t>
+          <t>MFD03496</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2171,10 +2201,10 @@
         </is>
       </c>
       <c r="C27">
-        <v>55.665</v>
+        <v>56.9867</v>
       </c>
       <c r="D27">
-        <v>8.2944</v>
+        <v>9.939299999999999</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2183,22 +2213,12 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>9160</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>vrøgum, ballonparken</t>
+          <t>6230</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2020-07-08</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>egetræer med enkelte birk</t>
+          <t>2020-08-17</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2218,29 +2238,29 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2020-07-08</t>
+          <t>2020-08-17</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Grassland formations</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Temperate forests</t>
+          <t>Semi-natural dry grasslands</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Oak-hornbeam mixed forrest</t>
+          <t>Species-rich Nardus upland grassland</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>MFD02515</t>
+          <t>MFD03685</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2249,10 +2269,10 @@
         </is>
       </c>
       <c r="C28">
-        <v>57.2751</v>
+        <v>57.2986</v>
       </c>
       <c r="D28">
-        <v>10.9492</v>
+        <v>10.9321</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2261,12 +2281,17 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>4030</t>
+          <t>9000</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2020-10-21</t>
+          <t>2020-09-27</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>btfe20</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2286,29 +2311,19 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2020-10-21</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>Dry heath</t>
+          <t>Forrests</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>MFD02835</t>
+          <t>MFD03686</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2317,10 +2332,10 @@
         </is>
       </c>
       <c r="C29">
-        <v>55.2906</v>
+        <v>57.2936</v>
       </c>
       <c r="D29">
-        <v>14.7601</v>
+        <v>10.9309</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -2329,22 +2344,17 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>hammer knude ruten nær sandvig</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2020-07-18</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t xml:space="preserve">  </t>
+          <t>btfe20, vrj: habitat estimat</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2364,19 +2374,24 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2020-07-18</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
           <t>Coastal</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Salt marshes and salt meadows</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>MFD02840</t>
+          <t>MFD03687</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2385,10 +2400,10 @@
         </is>
       </c>
       <c r="C30">
-        <v>55.0595</v>
+        <v>57.2989</v>
       </c>
       <c r="D30">
-        <v>14.7807</v>
+        <v>11.0165</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -2397,22 +2412,17 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1200</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
+          <t>9000</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2020-07-19</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> soil near beach</t>
+          <t>btfe20, vrj, nåleskov</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2432,24 +2442,19 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2020-07-19</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Coastal</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>Sea cliffs and shingle or stony beaches</t>
+          <t>Forrests</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>MFD02841</t>
+          <t>MFD03688</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2458,10 +2463,10 @@
         </is>
       </c>
       <c r="C31">
-        <v>55.0519</v>
+        <v>57.2799</v>
       </c>
       <c r="D31">
-        <v>14.8132</v>
+        <v>11.0336</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -2470,22 +2475,17 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1200</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
+          <t>9000</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2020-07-19</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> soil from a hill near beach</t>
+          <t>btfe20, vrj: nåleskov</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2505,24 +2505,19 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>2020-07-19</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Coastal</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>Sea cliffs and shingle or stony beaches</t>
+          <t>Forrests</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MFD02892</t>
+          <t>MFD03689</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2531,10 +2526,10 @@
         </is>
       </c>
       <c r="C32">
-        <v>57.2866</v>
+        <v>57.2417</v>
       </c>
       <c r="D32">
-        <v>10.9759</v>
+        <v>11.034</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -2543,12 +2538,17 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>4030</t>
+          <t>7230</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2020-10-20</t>
+          <t>2020-09-27</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>57.24831 11.02150, vrj: habitat estimat</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2568,29 +2568,29 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2020-10-20</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
+          <t>Bogs, mires and fens</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Temperate heath</t>
+          <t>Calcareous fens</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Dry heath</t>
+          <t>Alkaline fens</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>MFD03101</t>
+          <t>MFD03693</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2599,10 +2599,10 @@
         </is>
       </c>
       <c r="C33">
-        <v>56.988</v>
+        <v>57.2372</v>
       </c>
       <c r="D33">
-        <v>9.9704</v>
+        <v>10.9881</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -2611,12 +2611,17 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>6230</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2020-07-28</t>
+          <t>2020-09-27</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>btfe20@bio.aau.dk, vrj: habitat estimat</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2636,29 +2641,19 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>2020-07-28</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Grassland formations</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>Semi-natural dry grasslands</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>Species-rich Nardus upland grassland</t>
+          <t>Coastal</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MFD03102</t>
+          <t>MFD03696</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2667,10 +2662,10 @@
         </is>
       </c>
       <c r="C34">
-        <v>56.9884</v>
+        <v>57.2339</v>
       </c>
       <c r="D34">
-        <v>10.0051</v>
+        <v>10.9885</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -2679,12 +2674,17 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>6230</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2020-07-30</t>
+          <t>2020-09-27</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>btfe20@bio.aau.dk, vrj habitat estimat</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2704,29 +2704,24 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>2020-07-30</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Grassland formations</t>
+          <t>Coastal</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Semi-natural dry grasslands</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>Species-rich Nardus upland grassland</t>
+          <t>Salt marshes and salt meadows</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>MFD03107</t>
+          <t>MFD03698</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2735,24 +2730,24 @@
         </is>
       </c>
       <c r="C35">
-        <v>56.9545</v>
+        <v>57.2632</v>
       </c>
       <c r="D35">
-        <v>10.0158</v>
+        <v>11</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
           <t>natural_soil</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>6230</t>
-        </is>
-      </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2020-08-03</t>
+          <t>2020-09-27</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>btfe20@bio.aau.dk, vrj: habitat estimat</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2772,29 +2767,14 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>2020-08-03</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>Grassland formations</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>Semi-natural dry grasslands</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>Species-rich Nardus upland grassland</t>
+          <t>2020-09-27</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>MFD03114</t>
+          <t>MFD03699</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2803,10 +2783,10 @@
         </is>
       </c>
       <c r="C36">
-        <v>56.9954</v>
+        <v>57.2611</v>
       </c>
       <c r="D36">
-        <v>9.8789</v>
+        <v>10.9678</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -2815,12 +2795,17 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>6230</t>
+          <t>9000</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2020-07-22</t>
+          <t>2020-09-27</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>btfe20@bio.aau.dk, vrj: habitat estimat, birkeskov</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2840,29 +2825,19 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>2020-07-22</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Grassland formations</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>Semi-natural dry grasslands</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>Species-rich Nardus upland grassland</t>
+          <t>Forrests</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>MFD03466</t>
+          <t>MFD03700</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2871,10 +2846,10 @@
         </is>
       </c>
       <c r="C37">
-        <v>56.9769</v>
+        <v>57.2526</v>
       </c>
       <c r="D37">
-        <v>9.920199999999999</v>
+        <v>10.8769</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -2883,12 +2858,17 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>6230</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2020-08-11</t>
+          <t>2020-09-27</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>btfe20@bio.aau.dk, vrj: habitat estimat</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2908,29 +2888,19 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2020-08-11</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Grassland formations</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>Semi-natural dry grasslands</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>Species-rich Nardus upland grassland</t>
+          <t>Coastal</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>MFD03474</t>
+          <t>MFD03701</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2939,10 +2909,10 @@
         </is>
       </c>
       <c r="C38">
-        <v>56.9877</v>
+        <v>57.2658</v>
       </c>
       <c r="D38">
-        <v>9.8202</v>
+        <v>10.9099</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2951,12 +2921,17 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>6230</t>
+          <t>4000</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2020-08-24</t>
+          <t>2020-09-27</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>btfe20@bio.aau.dk, vrj: habitat estimat</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2976,29 +2951,24 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>2020-08-24</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Grassland formations</t>
+          <t>Heath and scrub</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Semi-natural dry grasslands</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>Species-rich Nardus upland grassland</t>
+          <t>Temperate heath</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>MFD03495</t>
+          <t>MFD03702</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3007,10 +2977,10 @@
         </is>
       </c>
       <c r="C39">
-        <v>57.0784</v>
+        <v>57.2658</v>
       </c>
       <c r="D39">
-        <v>9.915100000000001</v>
+        <v>10.9099</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -3019,12 +2989,17 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>6230</t>
+          <t>6400</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2020-08-28</t>
+          <t>2020-09-27</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>btfe20@bio.aau.dk, vrj: habitat estimat</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -3044,7 +3019,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>2020-08-28</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -3054,19 +3029,14 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Semi-natural dry grasslands</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>Species-rich Nardus upland grassland</t>
+          <t>Semi-natural tall-herb humid meadows</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>MFD03496</t>
+          <t>MFD03703</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3075,24 +3045,24 @@
         </is>
       </c>
       <c r="C40">
-        <v>56.9867</v>
+        <v>57.2965</v>
       </c>
       <c r="D40">
-        <v>9.939299999999999</v>
+        <v>11.0279</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
           <t>natural_soil</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>6230</t>
-        </is>
-      </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2020-08-17</t>
+          <t>2020-09-27</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>btfe20, vrj: habitat estimat</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -3112,29 +3082,14 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>2020-08-17</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>Grassland formations</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>Semi-natural dry grasslands</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>Species-rich Nardus upland grassland</t>
+          <t>2020-09-27</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>MFD03685</t>
+          <t>MFD03766</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3143,10 +3098,10 @@
         </is>
       </c>
       <c r="C41">
-        <v>57.2986</v>
+        <v>56.5999</v>
       </c>
       <c r="D41">
-        <v>10.9321</v>
+        <v>10.0114</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -3160,12 +3115,12 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>2020-09-05</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>btfe20</t>
+          <t>mixed forest</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3185,7 +3140,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>2020-09-05</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -3197,7 +3152,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>MFD03686</t>
+          <t>MFD03798</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3206,10 +3161,10 @@
         </is>
       </c>
       <c r="C42">
-        <v>57.2936</v>
+        <v>56.6055</v>
       </c>
       <c r="D42">
-        <v>10.9309</v>
+        <v>10.0294</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -3218,17 +3173,17 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>1300</t>
+          <t>6230</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>2020-09-05</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>btfe20, vrj: habitat estimat</t>
+          <t>grassland</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3248,24 +3203,29 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>2020-09-05</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Coastal</t>
+          <t>Grassland formations</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Salt marshes and salt meadows</t>
+          <t>Semi-natural dry grasslands</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Species-rich Nardus upland grassland</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>MFD03687</t>
+          <t>MFD03800</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3274,10 +3234,10 @@
         </is>
       </c>
       <c r="C43">
-        <v>57.2989</v>
+        <v>57.1636</v>
       </c>
       <c r="D43">
-        <v>11.0165</v>
+        <v>9.7483</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -3286,17 +3246,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>9000</t>
+          <t>9100</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>2020-08-15</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>btfe20, vrj, nåleskov</t>
+          <t>mixed forrest, gps coordinates is definetly wrong</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -3316,19 +3281,24 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>2020-08-15</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
           <t>Forrests</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Temperate forests</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>MFD03688</t>
+          <t>MFD03834</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3337,10 +3307,10 @@
         </is>
       </c>
       <c r="C44">
-        <v>57.2799</v>
+        <v>56.6058</v>
       </c>
       <c r="D44">
-        <v>11.0336</v>
+        <v>10.0261</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -3354,12 +3324,12 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>2020-09-05</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>btfe20, vrj: nåleskov</t>
+          <t>deciduous forest</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -3379,7 +3349,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>2020-09-05</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -3391,7 +3361,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>MFD03689</t>
+          <t>MFD03841</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3400,10 +3370,10 @@
         </is>
       </c>
       <c r="C45">
-        <v>57.2417</v>
+        <v>56.1172</v>
       </c>
       <c r="D45">
-        <v>11.034</v>
+        <v>9.598800000000001</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -3412,17 +3382,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>7230</t>
+          <t>6230</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>2020-08-21</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>57.24831 11.02150, vrj: habitat estimat</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -3442,29 +3417,29 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>2020-08-21</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Bogs, mires and fens</t>
+          <t>Grassland formations</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Calcareous fens</t>
+          <t>Semi-natural dry grasslands</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Alkaline fens</t>
+          <t>Species-rich Nardus upland grassland</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>MFD03693</t>
+          <t>MFD03868</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3473,10 +3448,10 @@
         </is>
       </c>
       <c r="C46">
-        <v>57.2372</v>
+        <v>55.9034</v>
       </c>
       <c r="D46">
-        <v>10.9881</v>
+        <v>8.7119</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -3485,17 +3460,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>4030</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>2020-08-21</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>btfe20@bio.aau.dk, vrj: habitat estimat</t>
+          <t>området skulle aldrig være gødet, og i hvert fald ikke siden 1903</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3515,19 +3495,29 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>2020-08-21</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Coastal</t>
+          <t>Heath and scrub</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Dry heath</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>MFD03696</t>
+          <t>MFD03877</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3536,10 +3526,10 @@
         </is>
       </c>
       <c r="C47">
-        <v>57.2339</v>
+        <v>56.5991</v>
       </c>
       <c r="D47">
-        <v>10.9885</v>
+        <v>10.0114</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -3548,17 +3538,17 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>1300</t>
+          <t>7230</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>2020-09-05</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>btfe20@bio.aau.dk, vrj habitat estimat</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -3578,24 +3568,29 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>2020-09-05</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Coastal</t>
+          <t>Bogs, mires and fens</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Salt marshes and salt meadows</t>
+          <t>Calcareous fens</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Alkaline fens</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>MFD03698</t>
+          <t>MFD03879</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3604,24 +3599,29 @@
         </is>
       </c>
       <c r="C48">
-        <v>57.2632</v>
+        <v>56.9097</v>
       </c>
       <c r="D48">
-        <v>11</v>
+        <v>9.570499999999999</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6410</t>
+        </is>
+      </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>2020-09-06</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>btfe20@bio.aau.dk, vrj: habitat estimat</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -3641,14 +3641,29 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>2020-09-06</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Grassland formations</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Semi-natural tall-herb humid meadows</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Molinia meadows</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>MFD03699</t>
+          <t>MFD03910</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3657,10 +3672,10 @@
         </is>
       </c>
       <c r="C49">
-        <v>57.2611</v>
+        <v>56.9272</v>
       </c>
       <c r="D49">
-        <v>10.9678</v>
+        <v>9.440300000000001</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -3669,17 +3684,17 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>9000</t>
+          <t>4030</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>2020-09-06</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>btfe20@bio.aau.dk, vrj: habitat estimat, birkeskov</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3699,19 +3714,29 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>2020-09-06</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Heath and scrub</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Dry heath</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>MFD03700</t>
+          <t>MFD03928</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3720,10 +3745,10 @@
         </is>
       </c>
       <c r="C50">
-        <v>57.2526</v>
+        <v>56.21792</v>
       </c>
       <c r="D50">
-        <v>10.8769</v>
+        <v>10.55345</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -3732,17 +3757,17 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>9110</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>2020-09-13</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>btfe20@bio.aau.dk, vrj: habitat estimat</t>
+          <t>deciduous forrest</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -3762,19 +3787,29 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>2020-09-13</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Coastal</t>
+          <t>Forrests</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>Temperate forests</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>Beech forests Luzulo-Fagetum</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>MFD03701</t>
+          <t>MFD03952</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3783,10 +3818,10 @@
         </is>
       </c>
       <c r="C51">
-        <v>57.2658</v>
+        <v>56.3135</v>
       </c>
       <c r="D51">
-        <v>10.9099</v>
+        <v>9.126200000000001</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -3795,17 +3830,17 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>4000</t>
+          <t>4030</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>2020-09-20</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>btfe20@bio.aau.dk, vrj: habitat estimat</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -3825,7 +3860,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>2020-09-20</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -3836,13 +3871,18 @@
       <c r="O51" t="inlineStr">
         <is>
           <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>Dry heath</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>MFD03702</t>
+          <t>MFD03955</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3851,10 +3891,10 @@
         </is>
       </c>
       <c r="C52">
-        <v>57.2658</v>
+        <v>57.3039</v>
       </c>
       <c r="D52">
-        <v>10.9099</v>
+        <v>10.2286</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -3863,17 +3903,17 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>6400</t>
+          <t>9000</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>2020-09-17</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>btfe20@bio.aau.dk, vrj: habitat estimat</t>
+          <t>løvfældende skov primært bøg</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -3893,24 +3933,19 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>2020-09-17</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Grassland formations</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>Semi-natural tall-herb humid meadows</t>
+          <t>Forrests</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>MFD03703</t>
+          <t>MFD03962</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3919,24 +3954,29 @@
         </is>
       </c>
       <c r="C53">
-        <v>57.2965</v>
+        <v>56.6047</v>
       </c>
       <c r="D53">
-        <v>11.0279</v>
+        <v>10.0324</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>9000</t>
+        </is>
+      </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>2020-09-05</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>btfe20, vrj: habitat estimat</t>
+          <t>coniferous forest</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -3956,45 +3996,24 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>2020-09-05</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Forrests</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>MFD03766</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>soil</t>
-        </is>
-      </c>
-      <c r="C54">
-        <v>56.6023</v>
-      </c>
-      <c r="D54">
-        <v>10.0128</v>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>natural_soil</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>9000</t>
+          <t>MFD10692</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2020-09-05</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>mixed forest</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -4013,899 +4032,6 @@
         </is>
       </c>
       <c r="M54" t="inlineStr">
-        <is>
-          <t>2020-09-05</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>Forrests</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>MFD03798</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>soil</t>
-        </is>
-      </c>
-      <c r="C55">
-        <v>56.6055</v>
-      </c>
-      <c r="D55">
-        <v>10.0294</v>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>natural_soil</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>6230</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2020-09-05</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>grassland</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>P08_3</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>Soil</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>Natural</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>2020-09-05</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>Grassland formations</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>Semi-natural dry grasslands</t>
-        </is>
-      </c>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>Species-rich Nardus upland grassland</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>MFD03800</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>soil</t>
-        </is>
-      </c>
-      <c r="C56">
-        <v>57.1636</v>
-      </c>
-      <c r="D56">
-        <v>9.7483</v>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>natural_soil</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>9100</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2020-08-15</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>mixed forrest, gps coordinates is definetly wrong</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>P08_3</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>Soil</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>Natural</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>2020-08-15</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>Forrests</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>Temperate forests</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>MFD03834</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>soil</t>
-        </is>
-      </c>
-      <c r="C57">
-        <v>56.6058</v>
-      </c>
-      <c r="D57">
-        <v>10.0261</v>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>natural_soil</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>9000</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2020-09-05</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>deciduous forest</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>P08_3</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>Soil</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>Natural</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>2020-09-05</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>Forrests</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>MFD03841</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>soil</t>
-        </is>
-      </c>
-      <c r="C58">
-        <v>56.1172</v>
-      </c>
-      <c r="D58">
-        <v>9.598800000000001</v>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>natural_soil</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>6230</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2020-08-21</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>P08_3</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>Soil</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>Natural</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>2020-08-21</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>Grassland formations</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>Semi-natural dry grasslands</t>
-        </is>
-      </c>
-      <c r="P58" t="inlineStr">
-        <is>
-          <t>Species-rich Nardus upland grassland</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>MFD03868</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>soil</t>
-        </is>
-      </c>
-      <c r="C59">
-        <v>55.9034</v>
-      </c>
-      <c r="D59">
-        <v>8.7119</v>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>natural_soil</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>4030</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2020-08-21</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>området skulle aldrig være gødet, og i hvert fald ikke siden 1903</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>P08_3</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>Soil</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>Natural</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>2020-08-21</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P59" t="inlineStr">
-        <is>
-          <t>Dry heath</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>MFD03877</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>soil</t>
-        </is>
-      </c>
-      <c r="C60">
-        <v>56.5991</v>
-      </c>
-      <c r="D60">
-        <v>10.0114</v>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>natural_soil</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>7230</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2020-09-05</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>P08_3</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>Soil</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>Natural</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>2020-09-05</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>Bogs, mires and fens</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>Calcareous fens</t>
-        </is>
-      </c>
-      <c r="P60" t="inlineStr">
-        <is>
-          <t>Alkaline fens</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>MFD03879</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>soil</t>
-        </is>
-      </c>
-      <c r="C61">
-        <v>56.9097</v>
-      </c>
-      <c r="D61">
-        <v>9.570499999999999</v>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>natural_soil</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>6410</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2020-09-06</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>P08_3</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>Soil</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>Natural</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>2020-09-06</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>Grassland formations</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>Semi-natural tall-herb humid meadows</t>
-        </is>
-      </c>
-      <c r="P61" t="inlineStr">
-        <is>
-          <t>Molinia meadows</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>MFD03910</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>soil</t>
-        </is>
-      </c>
-      <c r="C62">
-        <v>56.9272</v>
-      </c>
-      <c r="D62">
-        <v>9.440300000000001</v>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>natural_soil</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>4030</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2020-09-06</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>P08_3</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>Soil</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>Natural</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>2020-09-06</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P62" t="inlineStr">
-        <is>
-          <t>Dry heath</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>MFD03928</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>soil</t>
-        </is>
-      </c>
-      <c r="C63">
-        <v>56.21792</v>
-      </c>
-      <c r="D63">
-        <v>10.55345</v>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>natural_soil</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>9110</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-03-12</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>deciduous forrest</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>P08_3</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>Soil</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>Natural</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>2021-03-12</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>Forrests</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>Temperate forests</t>
-        </is>
-      </c>
-      <c r="P63" t="inlineStr">
-        <is>
-          <t>Beech forests Luzulo-Fagetum</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>MFD03952</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>soil</t>
-        </is>
-      </c>
-      <c r="C64">
-        <v>56.3135</v>
-      </c>
-      <c r="D64">
-        <v>9.126200000000001</v>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>natural_soil</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>4030</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2020-10-05</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>P08_3</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>Soil</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>Natural</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>2020-10-05</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P64" t="inlineStr">
-        <is>
-          <t>Dry heath</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>MFD03955</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>soil</t>
-        </is>
-      </c>
-      <c r="C65">
-        <v>57.3039</v>
-      </c>
-      <c r="D65">
-        <v>10.2286</v>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>natural_soil</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>9000</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2020-09-17</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>løvfældende skov primært bøg</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>P08_3</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>Soil</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>Natural</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>2020-09-17</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>Forrests</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>MFD03962</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>soil</t>
-        </is>
-      </c>
-      <c r="C66">
-        <v>56.6047</v>
-      </c>
-      <c r="D66">
-        <v>10.0324</v>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>natural_soil</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>9000</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2020-09-05</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>coniferous forest</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>P08_3</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>Soil</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>Natural</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>2020-09-05</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>Forrests</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>MFD10692</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2022-06-30</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>P08_3</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>Soil</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>Natural</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr">
         <is>
           <t>2022-06-30</t>
         </is>

--- a/analysis/metadata/P08_3/P08_3_minimal_metadata.xlsx
+++ b/analysis/metadata/P08_3/P08_3_minimal_metadata.xlsx
@@ -1412,7 +1412,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1485,7 +1485,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Oak-hornbeam mixed forrest</t>
+          <t>Oak-hornbeam mixed forest</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
     </row>
@@ -2447,7 +2447,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
     </row>
@@ -2510,7 +2510,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
     </row>
@@ -2740,6 +2740,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
       <c r="H35" t="inlineStr">
         <is>
           <t>2020-09-27</t>
@@ -2768,6 +2773,16 @@
       <c r="M35" t="inlineStr">
         <is>
           <t>2020-09-27</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Grassland formations</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Grasslands (non-habitat type)</t>
         </is>
       </c>
     </row>
@@ -2830,7 +2845,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
     </row>
@@ -3055,6 +3070,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
       <c r="H40" t="inlineStr">
         <is>
           <t>2020-09-27</t>
@@ -3083,6 +3103,16 @@
       <c r="M40" t="inlineStr">
         <is>
           <t>2020-09-27</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Grassland formations</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Grasslands (non-habitat type)</t>
         </is>
       </c>
     </row>
@@ -3145,7 +3175,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
     </row>
@@ -3286,7 +3316,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -3354,7 +3384,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
     </row>
@@ -3792,7 +3822,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -3938,7 +3968,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
     </row>
@@ -4001,7 +4031,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
     </row>

--- a/analysis/metadata/P08_3/P08_3_minimal_metadata.xlsx
+++ b/analysis/metadata/P08_3/P08_3_minimal_metadata.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P54"/>
+  <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1372,7 +1372,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>9100</t>
+          <t>9910</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1417,7 +1417,12 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Temperate forests</t>
+          <t>Forest (non-habitattype)</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Coniferous forest (nåleskov)</t>
         </is>
       </c>
     </row>
@@ -1445,7 +1450,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>9160</t>
+          <t>9939</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1490,12 +1495,12 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Temperate forests</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Oak-hornbeam mixed forest</t>
+          <t>Birch-coniferous mix</t>
         </is>
       </c>
     </row>
@@ -2412,7 +2417,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>9000</t>
+          <t>9910</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -2448,6 +2453,16 @@
       <c r="N30" t="inlineStr">
         <is>
           <t>Forests</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Forest (non-habitattype)</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Coniferous forest (nåleskov)</t>
         </is>
       </c>
     </row>
@@ -2475,7 +2490,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>9000</t>
+          <t>9910</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2511,6 +2526,16 @@
       <c r="N31" t="inlineStr">
         <is>
           <t>Forests</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Forest (non-habitattype)</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Coniferous forest (nåleskov)</t>
         </is>
       </c>
     </row>
@@ -2810,7 +2835,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>9000</t>
+          <t>9930</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2846,6 +2871,16 @@
       <c r="N36" t="inlineStr">
         <is>
           <t>Forests</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Forest (non-habitattype)</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Birch</t>
         </is>
       </c>
     </row>
@@ -3276,7 +3311,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>9100</t>
+          <t>9000</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -3317,11 +3352,6 @@
       <c r="N43" t="inlineStr">
         <is>
           <t>Forests</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>Temperate forests</t>
         </is>
       </c>
     </row>
@@ -3349,7 +3379,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>9000</t>
+          <t>9990</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -3385,6 +3415,16 @@
       <c r="N44" t="inlineStr">
         <is>
           <t>Forests</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Forest (non-habitattype)</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Deciduous trees (løvtræer)</t>
         </is>
       </c>
     </row>
@@ -3787,7 +3827,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>9110</t>
+          <t>9990</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -3827,12 +3867,12 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Temperate forests</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Beech forests Luzulo-Fagetum</t>
+          <t>Deciduous trees (løvtræer)</t>
         </is>
       </c>
     </row>
@@ -3933,7 +3973,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>9000</t>
+          <t>9990</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -3969,6 +4009,16 @@
       <c r="N52" t="inlineStr">
         <is>
           <t>Forests</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>Forest (non-habitattype)</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>Deciduous trees (løvtræer)</t>
         </is>
       </c>
     </row>
@@ -3996,7 +4046,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>9000</t>
+          <t>9910</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -4034,36 +4084,14 @@
           <t>Forests</t>
         </is>
       </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>MFD10692</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2022-06-30</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>P08_3</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>Soil</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>Natural</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>2022-06-30</t>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>Forest (non-habitattype)</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Coniferous forest (nåleskov)</t>
         </is>
       </c>
     </row>

--- a/analysis/metadata/P08_3/P08_3_minimal_metadata.xlsx
+++ b/analysis/metadata/P08_3/P08_3_minimal_metadata.xlsx
@@ -1422,7 +1422,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Coniferous forest (nåleskov)</t>
+          <t>Coniferous forest</t>
         </is>
       </c>
     </row>
@@ -2462,7 +2462,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Coniferous forest (nåleskov)</t>
+          <t>Coniferous forest</t>
         </is>
       </c>
     </row>
@@ -2535,7 +2535,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Coniferous forest (nåleskov)</t>
+          <t>Coniferous forest</t>
         </is>
       </c>
     </row>
@@ -2805,11 +2805,6 @@
           <t>Grassland formations</t>
         </is>
       </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>Grasslands (non-habitat type)</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3006,12 +3001,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -3145,11 +3135,6 @@
           <t>Grassland formations</t>
         </is>
       </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>Grasslands (non-habitat type)</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3424,7 +3409,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -3570,17 +3555,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>Dry heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -3789,17 +3764,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>Dry heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -3872,7 +3837,7 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -3935,17 +3900,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>Dry heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -4018,7 +3973,7 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Deciduous trees (løvtræer)</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
@@ -4091,7 +4046,7 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Coniferous forest (nåleskov)</t>
+          <t>Coniferous forest</t>
         </is>
       </c>
     </row>

--- a/analysis/metadata/P08_3/P08_3_minimal_metadata.xlsx
+++ b/analysis/metadata/P08_3/P08_3_minimal_metadata.xlsx
@@ -3515,7 +3515,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>4030</t>
+          <t>4130</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -3556,6 +3556,16 @@
       <c r="N46" t="inlineStr">
         <is>
           <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Dry heath</t>
         </is>
       </c>
     </row>
@@ -3729,7 +3739,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>4030</t>
+          <t>4130</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -3765,6 +3775,16 @@
       <c r="N49" t="inlineStr">
         <is>
           <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Dry heath</t>
         </is>
       </c>
     </row>
@@ -3865,7 +3885,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>4030</t>
+          <t>4130</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -3901,6 +3921,16 @@
       <c r="N51" t="inlineStr">
         <is>
           <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>Dry heath</t>
         </is>
       </c>
     </row>

--- a/analysis/metadata/P08_3/P08_3_minimal_metadata.xlsx
+++ b/analysis/metadata/P08_3/P08_3_minimal_metadata.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P53"/>
+  <dimension ref="A1:P64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3139,7 +3139,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>MFD03766</t>
+          <t>MFD03760</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3148,10 +3148,10 @@
         </is>
       </c>
       <c r="C41">
-        <v>56.5999</v>
+        <v>55.8878</v>
       </c>
       <c r="D41">
-        <v>10.0114</v>
+        <v>8.711600000000001</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -3160,17 +3160,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>9000</t>
+          <t>6230</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2020-09-05</t>
+          <t>2020-08-21</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>mixed forest</t>
+          <t xml:space="preserve">am masterproject </t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3190,19 +3195,29 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2020-09-05</t>
+          <t>2020-08-21</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Forests</t>
+          <t>Grassland formations</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Semi-natural dry grasslands</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Species-rich Nardus upland grassland</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>MFD03798</t>
+          <t>MFD03766</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3211,10 +3226,10 @@
         </is>
       </c>
       <c r="C42">
-        <v>56.6055</v>
+        <v>56.5999</v>
       </c>
       <c r="D42">
-        <v>10.0294</v>
+        <v>10.0114</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -3223,7 +3238,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>6230</t>
+          <t>9000</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -3233,7 +3248,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>grassland</t>
+          <t>mixed forest</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3258,24 +3273,14 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Grassland formations</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>Semi-natural dry grasslands</t>
-        </is>
-      </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>Species-rich Nardus upland grassland</t>
+          <t>Forests</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>MFD03800</t>
+          <t>MFD03795</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3284,10 +3289,10 @@
         </is>
       </c>
       <c r="C43">
-        <v>57.1636</v>
+        <v>56.1179</v>
       </c>
       <c r="D43">
-        <v>9.7483</v>
+        <v>9.5999</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -3296,7 +3301,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>9000</t>
+          <t>6230</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -3306,12 +3311,12 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2020-08-15</t>
+          <t>2020-08-21</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>mixed forrest, gps coordinates is definetly wrong</t>
+          <t xml:space="preserve">am masterproject </t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -3331,19 +3336,29 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>2020-08-15</t>
+          <t>2020-08-21</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Forests</t>
+          <t>Grassland formations</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Semi-natural dry grasslands</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Species-rich Nardus upland grassland</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>MFD03834</t>
+          <t>MFD03798</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3352,10 +3367,10 @@
         </is>
       </c>
       <c r="C44">
-        <v>56.6058</v>
+        <v>56.6055</v>
       </c>
       <c r="D44">
-        <v>10.0261</v>
+        <v>10.0294</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -3364,7 +3379,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>9990</t>
+          <t>6230</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -3374,7 +3389,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>deciduous forest</t>
+          <t>grassland</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -3399,24 +3414,24 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Forests</t>
+          <t>Grassland formations</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Forest (non-habitattype)</t>
+          <t>Semi-natural dry grasslands</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Deciduous trees</t>
+          <t>Species-rich Nardus upland grassland</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>MFD03841</t>
+          <t>MFD03800</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3425,10 +3440,10 @@
         </is>
       </c>
       <c r="C45">
-        <v>56.1172</v>
+        <v>57.1636</v>
       </c>
       <c r="D45">
-        <v>9.598800000000001</v>
+        <v>9.7483</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -3437,7 +3452,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>6230</t>
+          <t>9000</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -3447,12 +3462,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2020-08-21</t>
+          <t>2020-08-15</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>mixed forrest, gps coordinates is definetly wrong</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -3472,29 +3487,19 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2020-08-21</t>
+          <t>2020-08-15</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Grassland formations</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>Semi-natural dry grasslands</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>Species-rich Nardus upland grassland</t>
+          <t>Forests</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>MFD03868</t>
+          <t>MFD03805</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3503,10 +3508,10 @@
         </is>
       </c>
       <c r="C46">
-        <v>55.9034</v>
+        <v>56.641</v>
       </c>
       <c r="D46">
-        <v>8.7119</v>
+        <v>9.5441</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -3515,22 +3520,17 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>4130</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
+          <t>6230</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2020-08-21</t>
+          <t>2020-08-29</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>området skulle aldrig være gødet, og i hvert fald ikke siden 1903</t>
+          <t xml:space="preserve">am masterproject </t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3550,29 +3550,29 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>2020-08-21</t>
+          <t>2020-08-29</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Temperate heath and scrub</t>
+          <t>Grassland formations</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Temperate heath</t>
+          <t>Semi-natural dry grasslands</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Dry heath</t>
+          <t>Species-rich Nardus upland grassland</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>MFD03877</t>
+          <t>MFD03808</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3581,10 +3581,10 @@
         </is>
       </c>
       <c r="C47">
-        <v>56.5991</v>
+        <v>56.4588</v>
       </c>
       <c r="D47">
-        <v>10.0114</v>
+        <v>8.8912</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -3593,17 +3593,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>7230</t>
+          <t>6230</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2020-09-05</t>
+          <t>2020-08-20</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">am masterproject </t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -3623,29 +3628,29 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>2020-09-05</t>
+          <t>2020-08-20</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Bogs, mires and fens</t>
+          <t>Grassland formations</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Calcareous fens</t>
+          <t>Semi-natural dry grasslands</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Alkaline fens</t>
+          <t>Species-rich Nardus upland grassland</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>MFD03879</t>
+          <t>MFD03834</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3654,10 +3659,10 @@
         </is>
       </c>
       <c r="C48">
-        <v>56.9097</v>
+        <v>56.6058</v>
       </c>
       <c r="D48">
-        <v>9.570499999999999</v>
+        <v>10.0261</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -3666,17 +3671,17 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>6410</t>
+          <t>9990</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2020-09-06</t>
+          <t>2020-09-05</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>deciduous forest</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -3696,29 +3701,29 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>2020-09-06</t>
+          <t>2020-09-05</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Grassland formations</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Semi-natural tall-herb humid meadows</t>
+          <t>Forest (non-habitattype)</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Molinia meadows</t>
+          <t>Deciduous trees</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>MFD03910</t>
+          <t>MFD03841</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3727,10 +3732,10 @@
         </is>
       </c>
       <c r="C49">
-        <v>56.9272</v>
+        <v>56.1172</v>
       </c>
       <c r="D49">
-        <v>9.440300000000001</v>
+        <v>9.598800000000001</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -3739,12 +3744,17 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>4130</t>
+          <t>6230</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2020-09-06</t>
+          <t>2020-08-21</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3769,29 +3779,29 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>2020-09-06</t>
+          <t>2020-08-21</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Temperate heath and scrub</t>
+          <t>Grassland formations</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Temperate heath</t>
+          <t>Semi-natural dry grasslands</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Dry heath</t>
+          <t>Species-rich Nardus upland grassland</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>MFD03928</t>
+          <t>MFD03846</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3800,10 +3810,10 @@
         </is>
       </c>
       <c r="C50">
-        <v>56.21792</v>
+        <v>57.3889</v>
       </c>
       <c r="D50">
-        <v>10.55345</v>
+        <v>10.4726</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -3812,17 +3822,17 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>9990</t>
+          <t>6230</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2020-09-13</t>
+          <t>2020-08-30</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>deciduous forrest</t>
+          <t xml:space="preserve">am masterproject </t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -3842,29 +3852,29 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>2020-09-13</t>
+          <t>2020-08-30</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Forests</t>
+          <t>Grassland formations</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Forest (non-habitattype)</t>
+          <t>Semi-natural dry grasslands</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Deciduous trees</t>
+          <t>Species-rich Nardus upland grassland</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>MFD03952</t>
+          <t>MFD03855</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3873,10 +3883,10 @@
         </is>
       </c>
       <c r="C51">
-        <v>56.3135</v>
+        <v>57.1857</v>
       </c>
       <c r="D51">
-        <v>9.126200000000001</v>
+        <v>9.775</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -3885,17 +3895,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>4130</t>
+          <t>6230</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2020-09-20</t>
+          <t>2020-08-15</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>am masterproject</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -3915,29 +3930,29 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>2020-09-20</t>
+          <t>2020-08-15</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Temperate heath and scrub</t>
+          <t>Grassland formations</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Temperate heath</t>
+          <t>Semi-natural dry grasslands</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Dry heath</t>
+          <t>Species-rich Nardus upland grassland</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>MFD03955</t>
+          <t>MFD03867</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3946,10 +3961,10 @@
         </is>
       </c>
       <c r="C52">
-        <v>57.3039</v>
+        <v>57.3938</v>
       </c>
       <c r="D52">
-        <v>10.2286</v>
+        <v>10.4696</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -3958,17 +3973,17 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>9990</t>
+          <t>6230</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2020-09-17</t>
+          <t>2020-08-30</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>løvfældende skov primært bøg</t>
+          <t xml:space="preserve">am masterproject </t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -3988,95 +4003,908 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>2020-09-17</t>
+          <t>2020-08-30</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Forests</t>
+          <t>Grassland formations</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Forest (non-habitattype)</t>
+          <t>Semi-natural dry grasslands</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Deciduous trees</t>
+          <t>Species-rich Nardus upland grassland</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
+          <t>MFD03868</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>soil</t>
+        </is>
+      </c>
+      <c r="C53">
+        <v>55.9034</v>
+      </c>
+      <c r="D53">
+        <v>8.7119</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>natural_soil</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4130</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>2020-08-21</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>området skulle aldrig være gødet, og i hvert fald ikke siden 1903</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>P08_3</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>2020-08-21</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Dry heath</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>MFD03871</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>soil</t>
+        </is>
+      </c>
+      <c r="C54">
+        <v>56.8124</v>
+      </c>
+      <c r="D54">
+        <v>9.8317</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>natural_soil</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6230</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>am masterproject</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>P08_3</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Grassland formations</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>Semi-natural dry grasslands</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Species-rich Nardus upland grassland</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>MFD03877</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>soil</t>
+        </is>
+      </c>
+      <c r="C55">
+        <v>56.5991</v>
+      </c>
+      <c r="D55">
+        <v>10.0114</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>natural_soil</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7230</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>2020-09-05</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>P08_3</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>2020-09-05</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Bogs, mires and fens</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>Calcareous fens</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>Alkaline fens</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>MFD03879</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>soil</t>
+        </is>
+      </c>
+      <c r="C56">
+        <v>56.9097</v>
+      </c>
+      <c r="D56">
+        <v>9.570499999999999</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>natural_soil</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6410</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>2020-09-06</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>P08_3</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>2020-09-06</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>Grassland formations</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>Semi-natural tall-herb humid meadows</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>Molinia meadows</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>MFD03908</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>soil</t>
+        </is>
+      </c>
+      <c r="C57">
+        <v>56.5995</v>
+      </c>
+      <c r="D57">
+        <v>10.0138</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>natural_soil</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6230</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>2020-09-05</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">am masterproject </t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>P08_3</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>2020-09-05</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>Grassland formations</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>Semi-natural dry grasslands</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>Species-rich Nardus upland grassland</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>MFD03910</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>soil</t>
+        </is>
+      </c>
+      <c r="C58">
+        <v>56.9272</v>
+      </c>
+      <c r="D58">
+        <v>9.440300000000001</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>natural_soil</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4130</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>2020-09-06</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>P08_3</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>2020-09-06</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>Dry heath</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>MFD03928</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>soil</t>
+        </is>
+      </c>
+      <c r="C59">
+        <v>56.21792</v>
+      </c>
+      <c r="D59">
+        <v>10.55345</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>natural_soil</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>9990</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>2020-09-13</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>deciduous forrest</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>P08_3</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>2020-09-13</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>Forests</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>Forest (non-habitattype)</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>Deciduous trees</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>MFD03952</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>soil</t>
+        </is>
+      </c>
+      <c r="C60">
+        <v>56.3135</v>
+      </c>
+      <c r="D60">
+        <v>9.126200000000001</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>natural_soil</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4130</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>2020-09-20</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>P08_3</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>2020-09-20</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>Dry heath</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>MFD03955</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>soil</t>
+        </is>
+      </c>
+      <c r="C61">
+        <v>57.3039</v>
+      </c>
+      <c r="D61">
+        <v>10.2286</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>natural_soil</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>9990</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>2020-09-17</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>løvfældende skov primært bøg</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>P08_3</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>2020-09-17</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>Forests</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>Forest (non-habitattype)</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>Deciduous trees</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
           <t>MFD03962</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>soil</t>
-        </is>
-      </c>
-      <c r="C53">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>soil</t>
+        </is>
+      </c>
+      <c r="C62">
         <v>56.6047</v>
       </c>
-      <c r="D53">
+      <c r="D62">
         <v>10.0324</v>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>natural_soil</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>natural_soil</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
         <is>
           <t>9910</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>2020-09-05</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>coniferous forest</t>
         </is>
       </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>P08_3</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>Soil</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>Natural</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>P08_3</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
         <is>
           <t>2020-09-05</t>
         </is>
       </c>
-      <c r="N53" t="inlineStr">
+      <c r="N62" t="inlineStr">
         <is>
           <t>Forests</t>
         </is>
       </c>
-      <c r="O53" t="inlineStr">
+      <c r="O62" t="inlineStr">
         <is>
           <t>Forest (non-habitattype)</t>
         </is>
       </c>
-      <c r="P53" t="inlineStr">
+      <c r="P62" t="inlineStr">
         <is>
           <t>Coniferous forest</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>MFD03970</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>soil</t>
+        </is>
+      </c>
+      <c r="C63">
+        <v>56.9263</v>
+      </c>
+      <c r="D63">
+        <v>9.441000000000001</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>natural_soil</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>6230</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>2020-09-06</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">am masterproject </t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>P08_3</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>2020-09-06</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>Grassland formations</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>Semi-natural dry grasslands</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>Species-rich Nardus upland grassland</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>MFD03973</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>soil</t>
+        </is>
+      </c>
+      <c r="C64">
+        <v>56.9034</v>
+      </c>
+      <c r="D64">
+        <v>9.574</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>natural_soil</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>6230</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>2020-09-06</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">am masterproject </t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>P08_3</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>2020-09-06</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>Grassland formations</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>Semi-natural dry grasslands</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>Species-rich Nardus upland grassland</t>
         </is>
       </c>
     </row>
